--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256615.3879141445</v>
+        <v>248365.9925528256</v>
       </c>
     </row>
     <row r="7">
@@ -1372,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>191.5343927718786</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>179.1059035498936</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>58.44897422084045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>65.93169399229406</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>99.54098133534616</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>14.97569200666033</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
-        <v>54.24885151651299</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>78.26956655655142</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>111.9609720062971</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>75.12485239226392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>56.98525252376672</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>32.25644014650661</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>273.7634172278317</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>90.58865435612491</v>
       </c>
       <c r="F22" t="n">
-        <v>134.7218084498074</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>307.2787671317957</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>263.1348141611869</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T23" t="n">
         <v>208.9229806032259</v>
@@ -2377,7 +2377,7 @@
         <v>255.5923844622858</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2414,7 +2414,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H24" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>42.05986914308285</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H25" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I25" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S25" t="n">
         <v>150.9449052174855</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>102.1189472345651</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>358.1693596530106</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>393.1102470506723</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.9779897930421</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T26" t="n">
         <v>208.9229806032259</v>
@@ -2614,10 +2614,10 @@
         <v>255.5923844622858</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H27" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.70697480726665</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2730,10 +2730,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4360114046202</v>
+        <v>11.26918254327319</v>
       </c>
       <c r="I28" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T28" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>147.0368806362688</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T29" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.9309417896214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H30" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>79.54175397538654</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.13170118745163</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S31" t="n">
         <v>150.9449052174855</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U31" t="n">
         <v>277.3278660122306</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>417.6834960418846</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0584736956206</v>
+        <v>207.7311723474567</v>
       </c>
       <c r="H32" t="n">
         <v>271.9779897930421</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T32" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.5923844622858</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H33" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4360114046202</v>
+        <v>102.0072087343059</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.58925011441572</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U34" t="n">
         <v>277.3278660122306</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>226.4479606797874</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.9779897930421</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.96727112594624</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T35" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.5923844622858</v>
@@ -3328,10 +3328,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H36" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>106.1583742836881</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.90451771702073</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>68.59199721635846</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U37" t="n">
         <v>277.3278660122306</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>325.3075973220634</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>271.9779897930421</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.34346969091203</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T38" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U38" t="n">
-        <v>186.4135361687125</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H39" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>7.008335987204338</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>236.6181441030213</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3278660122306</v>
+        <v>103.5648143796935</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.34346969091207</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U41" t="n">
-        <v>72.7767358281202</v>
+        <v>18.16839632192716</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H42" t="n">
-        <v>41.28176946329209</v>
+        <v>41.28176946329211</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T42" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U42" t="n">
         <v>182.8417636914805</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.51722980006989</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>68.59199721635848</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.445867145127856</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T43" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3278660122306</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>154.5008332534944</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>23.49727714488802</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H44" t="n">
         <v>271.9779897930421</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.34346969091207</v>
       </c>
       <c r="T44" t="n">
         <v>208.9229806032259</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>54.83952592457222</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H45" t="n">
-        <v>41.28176946329209</v>
+        <v>41.28176946329211</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T45" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U45" t="n">
         <v>182.8417636914805</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>100.5613415891779</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>165.4575387181642</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.59199721635848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.445867145127856</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T46" t="n">
         <v>236.6181441030213</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>924.067709305614</v>
+        <v>933.0136296510705</v>
       </c>
       <c r="C11" t="n">
-        <v>497.1669793189141</v>
+        <v>933.0136296510705</v>
       </c>
       <c r="D11" t="n">
-        <v>497.1669793189141</v>
+        <v>509.7210088360707</v>
       </c>
       <c r="E11" t="n">
-        <v>497.1669793189141</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="F11" t="n">
-        <v>497.1669793189141</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G11" t="n">
         <v>316.2519252281125</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303106</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103478</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5080,13 +5080,13 @@
         <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>1749.253343642254</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X11" t="n">
-        <v>1749.253343642254</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="Y11" t="n">
-        <v>1343.916073597144</v>
+        <v>1352.861993942601</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432377</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607425</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760275</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489647</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318689</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004304</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
@@ -5123,25 +5123,25 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014112</v>
       </c>
       <c r="L12" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320602</v>
       </c>
       <c r="M12" t="n">
-        <v>945.2060176780107</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O12" t="n">
-        <v>1357.404666497813</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P12" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
@@ -5153,7 +5153,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
         <v>1222.055408810128</v>
@@ -5162,10 +5162,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100081</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633005</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.137999643809</v>
+        <v>404.1166074924968</v>
       </c>
       <c r="C13" t="n">
-        <v>916.1654365227246</v>
+        <v>232.1440443714128</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8486636494953</v>
+        <v>232.1440443714128</v>
       </c>
       <c r="E13" t="n">
-        <v>586.6404578023488</v>
+        <v>232.1440443714128</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>232.1440443714128</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>232.1440443714128</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>95.31553397823112</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5202,22 +5202,22 @@
         <v>70.15038753583897</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L13" t="n">
-        <v>356.3700675499418</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M13" t="n">
-        <v>805.2876227700463</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N13" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="U13" t="n">
-        <v>1813.808303919614</v>
+        <v>1377.189215734279</v>
       </c>
       <c r="V13" t="n">
-        <v>1813.808303919614</v>
+        <v>1095.477748342307</v>
       </c>
       <c r="W13" t="n">
-        <v>1747.210633220327</v>
+        <v>820.6253445148204</v>
       </c>
       <c r="X13" t="n">
-        <v>1504.646736666132</v>
+        <v>820.6253445148204</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.303968355874</v>
+        <v>594.2825762045625</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.808303919614</v>
+        <v>1329.404979350724</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.261858126335</v>
+        <v>902.5042493640237</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.969237311335</v>
+        <v>902.5042493640237</v>
       </c>
       <c r="E14" t="n">
-        <v>863.9922974591925</v>
+        <v>476.5273095118813</v>
       </c>
       <c r="F14" t="n">
-        <v>438.8681156485927</v>
+        <v>51.40312770128151</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872675</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,7 +5296,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
         <v>1740.92751718922</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
     </row>
     <row r="15">
@@ -5339,34 +5339,34 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L15" t="n">
-        <v>712.4740133525838</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M15" t="n">
-        <v>921.7487118335988</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N15" t="n">
         <v>1232.032635645391</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.137999643809</v>
+        <v>875.1087571773857</v>
       </c>
       <c r="C16" t="n">
-        <v>916.1654365227246</v>
+        <v>703.1361940563016</v>
       </c>
       <c r="D16" t="n">
-        <v>752.8486636494953</v>
+        <v>539.8194211830723</v>
       </c>
       <c r="E16" t="n">
-        <v>586.6404578023488</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F16" t="n">
-        <v>414.7786835769092</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583896</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799611</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>587.5520906000654</v>
+        <v>605.7290006390006</v>
       </c>
       <c r="M16" t="n">
-        <v>685.6054381776846</v>
+        <v>703.7823482166198</v>
       </c>
       <c r="N16" t="n">
-        <v>1134.522993397789</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1583.440548617893</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1747.210633220327</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1747.210633220327</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U16" t="n">
-        <v>1747.210633220327</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="V16" t="n">
-        <v>1747.210633220327</v>
+        <v>1566.469898027196</v>
       </c>
       <c r="W16" t="n">
-        <v>1747.210633220327</v>
+        <v>1291.617494199709</v>
       </c>
       <c r="X16" t="n">
-        <v>1504.646736666132</v>
+        <v>1291.617494199709</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.303968355874</v>
+        <v>1065.274725889451</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839228</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>1164.668727853712</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149081</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250298</v>
       </c>
       <c r="L17" t="n">
         <v>598.9981372303101</v>
@@ -5542,7 +5542,7 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
         <v>1535.975759145523</v>
@@ -5551,16 +5551,16 @@
         <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>920.2712038954132</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W17" t="n">
-        <v>523.8798541957601</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="X17" t="n">
-        <v>112.1598553635073</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27616607839228</v>
+        <v>1277.760618769164</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G18" t="n">
         <v>80.62417733004328</v>
@@ -5591,31 +5591,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>336.3722748256214</v>
+        <v>148.7086316845726</v>
       </c>
       <c r="K18" t="n">
-        <v>462.1409003968615</v>
+        <v>274.4772572558126</v>
       </c>
       <c r="L18" t="n">
-        <v>911.0584556169659</v>
+        <v>451.1161080864616</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.333154097981</v>
+        <v>660.3908065674766</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.488135930297</v>
+        <v>877.5457883997929</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917784</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1225.987570233632</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919614</v>
@@ -5627,19 +5627,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.5810143914315</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C19" t="n">
-        <v>673.5810143914315</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D19" t="n">
-        <v>673.5810143914315</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E19" t="n">
-        <v>507.372808544285</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F19" t="n">
-        <v>335.5110343188454</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>170.0377592867514</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
@@ -5679,16 +5679,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>606.7836421246718</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>1055.701197344776</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.699903436724</v>
+        <v>1102.831680612252</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259049</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P19" t="n">
         <v>1622.490343973492</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1417.340083083371</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>1417.340083083371</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.487679255884</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X19" t="n">
-        <v>899.9237827016894</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y19" t="n">
-        <v>673.5810143914315</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1165.521485895255</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C20" t="n">
-        <v>1165.521485895255</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D20" t="n">
-        <v>742.228865080255</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E20" t="n">
-        <v>316.2519252281125</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F20" t="n">
-        <v>316.2519252281125</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G20" t="n">
         <v>316.2519252281125</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149078</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250295</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5770,7 +5770,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
         <v>1740.92751718922</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543254</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1198.103748669504</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W20" t="n">
-        <v>1165.521485895255</v>
+        <v>995.37257906885</v>
       </c>
       <c r="X20" t="n">
-        <v>1165.521485895255</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y20" t="n">
-        <v>1165.521485895255</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>628.9641045014104</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>805.6029553320593</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.1780912479237</v>
+        <v>471.6141946937288</v>
       </c>
       <c r="C22" t="n">
-        <v>714.1780912479237</v>
+        <v>299.6416315726449</v>
       </c>
       <c r="D22" t="n">
-        <v>550.8613183746944</v>
+        <v>299.6416315726449</v>
       </c>
       <c r="E22" t="n">
-        <v>550.8613183746944</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F22" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>146.1058671492725</v>
+        <v>297.4793645271714</v>
       </c>
       <c r="L22" t="n">
-        <v>595.0234223693769</v>
+        <v>746.3969197472759</v>
       </c>
       <c r="M22" t="n">
-        <v>693.0767699469961</v>
+        <v>844.4502673248951</v>
       </c>
       <c r="N22" t="n">
-        <v>790.0754760389441</v>
+        <v>941.448973416843</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5952,10 +5952,10 @@
         <v>1130.686828270247</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.686828270247</v>
+        <v>888.1229317160524</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.3440599599894</v>
+        <v>661.7801634057945</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>359.4315779109971</v>
+        <v>716.9209927847463</v>
       </c>
       <c r="C23" t="n">
-        <v>359.4315779109971</v>
+        <v>716.9209927847463</v>
       </c>
       <c r="D23" t="n">
-        <v>359.4315779109971</v>
+        <v>716.9209927847463</v>
       </c>
       <c r="E23" t="n">
-        <v>359.4315779109971</v>
+        <v>716.9209927847463</v>
       </c>
       <c r="F23" t="n">
-        <v>49.04898484857716</v>
+        <v>716.9209927847463</v>
       </c>
       <c r="G23" t="n">
-        <v>49.04898484857716</v>
+        <v>314.8417264255335</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I23" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J23" t="n">
-        <v>259.0884825884578</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K23" t="n">
-        <v>505.4157145809429</v>
+        <v>505.4157145809424</v>
       </c>
       <c r="L23" t="n">
-        <v>817.002963913363</v>
+        <v>817.0029639133625</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815876</v>
       </c>
       <c r="N23" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O23" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032331</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q23" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197635</v>
       </c>
       <c r="R23" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="S23" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T23" t="n">
-        <v>2188.543737081244</v>
+        <v>2188.543737081242</v>
       </c>
       <c r="U23" t="n">
-        <v>1930.369611361763</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V23" t="n">
-        <v>1572.880196488013</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="W23" t="n">
-        <v>1176.48884678836</v>
+        <v>1533.978261662109</v>
       </c>
       <c r="X23" t="n">
-        <v>764.7688479561068</v>
+        <v>1122.258262829856</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.4315779109971</v>
+        <v>716.9209927847463</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603.2860421943509</v>
+        <v>603.2860421943508</v>
       </c>
       <c r="C24" t="n">
-        <v>485.7801387118557</v>
+        <v>485.7801387118556</v>
       </c>
       <c r="D24" t="n">
-        <v>381.9401802271407</v>
+        <v>381.9401802271406</v>
       </c>
       <c r="E24" t="n">
-        <v>277.2382465000779</v>
+        <v>277.2382465000778</v>
       </c>
       <c r="F24" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G24" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220552</v>
       </c>
       <c r="H24" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I24" t="n">
-        <v>97.29622459830433</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J24" t="n">
-        <v>188.8511775110215</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K24" t="n">
-        <v>358.0333337150021</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L24" t="n">
-        <v>593.0470340438127</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M24" t="n">
-        <v>870.4424285254095</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N24" t="n">
-        <v>1157.521058481986</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O24" t="n">
-        <v>1416.531202809676</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P24" t="n">
-        <v>1621.268055105801</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q24" t="n">
         <v>1767.298649348451</v>
@@ -6110,10 +6110,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X24" t="n">
-        <v>871.9059402611213</v>
+        <v>871.9059402611211</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.2130516144136</v>
+        <v>732.2130516144135</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.7535069512205</v>
+        <v>1022.435453812528</v>
       </c>
       <c r="C25" t="n">
-        <v>630.7809438301365</v>
+        <v>850.4628906914442</v>
       </c>
       <c r="D25" t="n">
-        <v>467.4641709569072</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="E25" t="n">
-        <v>467.4641709569072</v>
+        <v>520.9379119710684</v>
       </c>
       <c r="F25" t="n">
-        <v>295.6023967314676</v>
+        <v>349.0761377456288</v>
       </c>
       <c r="G25" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H25" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J25" t="n">
         <v>176.7803915298658</v>
       </c>
       <c r="K25" t="n">
-        <v>271.4514094262495</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L25" t="n">
-        <v>397.4574103695612</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M25" t="n">
-        <v>944.3780224719071</v>
+        <v>1568.049525177094</v>
       </c>
       <c r="N25" t="n">
-        <v>1473.901324613068</v>
+        <v>1699.539904476375</v>
       </c>
       <c r="O25" t="n">
-        <v>1969.755419584649</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P25" t="n">
-        <v>2242.257474966978</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q25" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="R25" t="n">
-        <v>2450.988770565092</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S25" t="n">
-        <v>2298.519169335309</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T25" t="n">
-        <v>2298.519169335309</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.390011747197</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="V25" t="n">
-        <v>1736.678544355226</v>
+        <v>1956.360491216534</v>
       </c>
       <c r="W25" t="n">
-        <v>1461.826140527739</v>
+        <v>1681.508087389047</v>
       </c>
       <c r="X25" t="n">
-        <v>1219.262243973544</v>
+        <v>1438.944190834852</v>
       </c>
       <c r="Y25" t="n">
-        <v>992.9194756632862</v>
+        <v>1212.601422524594</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1572.880196488013</v>
+        <v>1533.978261662109</v>
       </c>
       <c r="C26" t="n">
-        <v>1145.979466501313</v>
+        <v>1533.978261662109</v>
       </c>
       <c r="D26" t="n">
-        <v>1145.979466501313</v>
+        <v>1110.685640847109</v>
       </c>
       <c r="E26" t="n">
-        <v>1145.979466501313</v>
+        <v>748.8984088743709</v>
       </c>
       <c r="F26" t="n">
-        <v>720.855284690713</v>
+        <v>323.7742270637711</v>
       </c>
       <c r="G26" t="n">
-        <v>323.7742270637712</v>
+        <v>323.7742270637711</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2336449326258</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J26" t="n">
-        <v>259.0884825884573</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K26" t="n">
-        <v>505.4157145809425</v>
+        <v>505.4157145809421</v>
       </c>
       <c r="L26" t="n">
-        <v>817.0029639133626</v>
+        <v>817.002963913362</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815876</v>
       </c>
       <c r="N26" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O26" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032331</v>
       </c>
       <c r="P26" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q26" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197635</v>
       </c>
       <c r="R26" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="S26" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.543737081244</v>
+        <v>2188.543737081242</v>
       </c>
       <c r="U26" t="n">
-        <v>1930.369611361763</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V26" t="n">
-        <v>1572.880196488013</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="W26" t="n">
-        <v>1572.880196488013</v>
+        <v>1533.978261662109</v>
       </c>
       <c r="X26" t="n">
-        <v>1572.880196488013</v>
+        <v>1533.978261662109</v>
       </c>
       <c r="Y26" t="n">
-        <v>1572.880196488013</v>
+        <v>1533.978261662109</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.2860421943509</v>
+        <v>603.2860421943508</v>
       </c>
       <c r="C27" t="n">
-        <v>485.7801387118557</v>
+        <v>485.7801387118556</v>
       </c>
       <c r="D27" t="n">
-        <v>381.9401802271407</v>
+        <v>381.9401802271406</v>
       </c>
       <c r="E27" t="n">
-        <v>277.2382465000779</v>
+        <v>277.2382465000778</v>
       </c>
       <c r="F27" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G27" t="n">
-        <v>90.74774188220553</v>
+        <v>90.74774188220552</v>
       </c>
       <c r="H27" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I27" t="n">
-        <v>73.8389187538925</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J27" t="n">
-        <v>165.3938716666097</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K27" t="n">
-        <v>334.5760278705902</v>
+        <v>358.0333337150019</v>
       </c>
       <c r="L27" t="n">
-        <v>569.5897281994008</v>
+        <v>593.0470340438123</v>
       </c>
       <c r="M27" t="n">
-        <v>846.9851226809976</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N27" t="n">
-        <v>1134.063752637574</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O27" t="n">
-        <v>1393.073896965264</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P27" t="n">
-        <v>1597.810749261389</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q27" t="n">
-        <v>1726.560043637157</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R27" t="n">
         <v>1817.4386691009</v>
@@ -6347,10 +6347,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X27" t="n">
-        <v>871.9059402611213</v>
+        <v>871.9059402611211</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.2130516144136</v>
+        <v>732.2130516144135</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>997.804511266193</v>
+        <v>563.745280584531</v>
       </c>
       <c r="C28" t="n">
-        <v>825.831948145109</v>
+        <v>563.745280584531</v>
       </c>
       <c r="D28" t="n">
-        <v>756.4309634913043</v>
+        <v>563.745280584531</v>
       </c>
       <c r="E28" t="n">
-        <v>590.2227576441578</v>
+        <v>397.5370747373845</v>
       </c>
       <c r="F28" t="n">
-        <v>418.3609834187182</v>
+        <v>225.6753005119449</v>
       </c>
       <c r="G28" t="n">
-        <v>253.1176804253233</v>
+        <v>60.43199751855005</v>
       </c>
       <c r="H28" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J28" t="n">
-        <v>126.2653698523715</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K28" t="n">
-        <v>220.9363877487552</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L28" t="n">
-        <v>723.3312822832319</v>
+        <v>644.7400194835832</v>
       </c>
       <c r="M28" t="n">
-        <v>1270.251894385578</v>
+        <v>1191.660631585929</v>
       </c>
       <c r="N28" t="n">
-        <v>1799.775196526739</v>
+        <v>1721.18393372709</v>
       </c>
       <c r="O28" t="n">
-        <v>2295.62929149832</v>
+        <v>2217.038028698671</v>
       </c>
       <c r="P28" t="n">
-        <v>2393.630972344878</v>
+        <v>2315.039709545229</v>
       </c>
       <c r="Q28" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="R28" t="n">
-        <v>2452.449242428858</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S28" t="n">
-        <v>2452.449242428858</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T28" t="n">
-        <v>2213.44101606217</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="U28" t="n">
-        <v>2213.44101606217</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V28" t="n">
-        <v>1931.729548670198</v>
+        <v>1497.670317988536</v>
       </c>
       <c r="W28" t="n">
-        <v>1656.877144842711</v>
+        <v>1222.817914161049</v>
       </c>
       <c r="X28" t="n">
-        <v>1414.313248288517</v>
+        <v>980.2540176068545</v>
       </c>
       <c r="Y28" t="n">
-        <v>1187.970479978259</v>
+        <v>753.9112492965966</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.9497148352771</v>
+        <v>1022.942973675586</v>
       </c>
       <c r="C29" t="n">
-        <v>49.04898484857716</v>
+        <v>1022.942973675586</v>
       </c>
       <c r="D29" t="n">
-        <v>49.04898484857716</v>
+        <v>599.6503528605867</v>
       </c>
       <c r="E29" t="n">
-        <v>49.04898484857716</v>
+        <v>599.6503528605867</v>
       </c>
       <c r="F29" t="n">
-        <v>49.04898484857716</v>
+        <v>599.6503528605867</v>
       </c>
       <c r="G29" t="n">
-        <v>49.04898484857716</v>
+        <v>197.5710865013739</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I29" t="n">
         <v>100.2336449326259</v>
       </c>
       <c r="J29" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K29" t="n">
-        <v>505.4157145809431</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L29" t="n">
-        <v>817.0029639133631</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N29" t="n">
         <v>1527.140232067529</v>
       </c>
       <c r="O29" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P29" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q29" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R29" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S29" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T29" t="n">
-        <v>2188.543737081244</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U29" t="n">
-        <v>1930.369611361763</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="V29" t="n">
-        <v>1572.880196488013</v>
+        <v>1831.054322207492</v>
       </c>
       <c r="W29" t="n">
-        <v>1176.48884678836</v>
+        <v>1434.662972507839</v>
       </c>
       <c r="X29" t="n">
-        <v>764.7688479561068</v>
+        <v>1022.942973675586</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.9497148352771</v>
+        <v>1022.942973675586</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H30" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I30" t="n">
-        <v>97.29622459830433</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J30" t="n">
-        <v>188.8511775110215</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K30" t="n">
-        <v>358.0333337150021</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L30" t="n">
-        <v>593.0470340438127</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M30" t="n">
-        <v>870.4424285254095</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N30" t="n">
         <v>1174.802358348868</v>
       </c>
       <c r="O30" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P30" t="n">
         <v>1638.549354972683</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.7535069512205</v>
+        <v>563.7452805845314</v>
       </c>
       <c r="C31" t="n">
-        <v>630.7809438301365</v>
+        <v>563.7452805845314</v>
       </c>
       <c r="D31" t="n">
-        <v>467.4641709569072</v>
+        <v>400.4285077113021</v>
       </c>
       <c r="E31" t="n">
-        <v>301.2559651097607</v>
+        <v>400.4285077113021</v>
       </c>
       <c r="F31" t="n">
-        <v>129.3941908843211</v>
+        <v>228.5667334858626</v>
       </c>
       <c r="G31" t="n">
-        <v>49.04898484857716</v>
+        <v>63.32343049246768</v>
       </c>
       <c r="H31" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J31" t="n">
-        <v>126.2653698523715</v>
+        <v>98.85867488164493</v>
       </c>
       <c r="K31" t="n">
-        <v>220.9363877487552</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L31" t="n">
-        <v>723.3312822832319</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M31" t="n">
-        <v>1270.251894385578</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N31" t="n">
-        <v>1799.775196526739</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O31" t="n">
-        <v>2295.62929149832</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P31" t="n">
-        <v>2393.630972344878</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q31" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R31" t="n">
-        <v>2450.988770565092</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.519169335309</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T31" t="n">
-        <v>2298.519169335309</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.390011747197</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V31" t="n">
-        <v>1736.678544355226</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W31" t="n">
-        <v>1461.826140527739</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X31" t="n">
-        <v>1219.262243973544</v>
+        <v>980.254017606855</v>
       </c>
       <c r="Y31" t="n">
-        <v>992.9194756632862</v>
+        <v>753.911249296597</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1572.880196488013</v>
+        <v>958.727875892004</v>
       </c>
       <c r="C32" t="n">
-        <v>1572.880196488013</v>
+        <v>958.727875892004</v>
       </c>
       <c r="D32" t="n">
-        <v>1572.880196488013</v>
+        <v>958.727875892004</v>
       </c>
       <c r="E32" t="n">
-        <v>1150.977675233584</v>
+        <v>958.727875892004</v>
       </c>
       <c r="F32" t="n">
-        <v>725.853493422984</v>
+        <v>533.6036940814042</v>
       </c>
       <c r="G32" t="n">
         <v>323.7742270637712</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2336449326258</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J32" t="n">
-        <v>259.0884825884575</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K32" t="n">
         <v>505.4157145809427</v>
       </c>
       <c r="L32" t="n">
-        <v>817.0029639133628</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M32" t="n">
         <v>1168.850098815877</v>
@@ -6715,37 +6715,37 @@
         <v>1527.140232067529</v>
       </c>
       <c r="O32" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P32" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q32" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R32" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S32" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T32" t="n">
-        <v>2188.543737081244</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U32" t="n">
-        <v>1930.369611361763</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="V32" t="n">
-        <v>1572.880196488013</v>
+        <v>1783.913510228644</v>
       </c>
       <c r="W32" t="n">
-        <v>1572.880196488013</v>
+        <v>1783.913510228644</v>
       </c>
       <c r="X32" t="n">
-        <v>1572.880196488013</v>
+        <v>1783.913510228644</v>
       </c>
       <c r="Y32" t="n">
-        <v>1572.880196488013</v>
+        <v>1378.576240183534</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I33" t="n">
-        <v>97.29622459830433</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J33" t="n">
-        <v>188.8511775110215</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K33" t="n">
-        <v>358.0333337150021</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0470340438127</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M33" t="n">
-        <v>870.4424285254095</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.521058481986</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O33" t="n">
-        <v>1416.531202809676</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P33" t="n">
-        <v>1621.268055105801</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q33" t="n">
-        <v>1750.017349481569</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R33" t="n">
         <v>1817.4386691009</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.1186809392989</v>
+        <v>565.2057524482971</v>
       </c>
       <c r="C34" t="n">
-        <v>687.1461178182149</v>
+        <v>393.233189327213</v>
       </c>
       <c r="D34" t="n">
-        <v>687.1461178182149</v>
+        <v>393.233189327213</v>
       </c>
       <c r="E34" t="n">
-        <v>520.9379119710684</v>
+        <v>393.233189327213</v>
       </c>
       <c r="F34" t="n">
-        <v>349.0761377456288</v>
+        <v>221.3714151017735</v>
       </c>
       <c r="G34" t="n">
-        <v>183.8328347522339</v>
+        <v>221.3714151017735</v>
       </c>
       <c r="H34" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J34" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164493</v>
       </c>
       <c r="K34" t="n">
-        <v>271.4514094262495</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L34" t="n">
-        <v>723.3312822832319</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M34" t="n">
-        <v>1270.251894385578</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N34" t="n">
-        <v>1799.775196526739</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O34" t="n">
-        <v>2295.62929149832</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P34" t="n">
-        <v>2393.630972344878</v>
+        <v>2366.224277374151</v>
       </c>
       <c r="Q34" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R34" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S34" t="n">
-        <v>2354.884343323387</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T34" t="n">
-        <v>2354.884343323387</v>
+        <v>2060.971414832386</v>
       </c>
       <c r="U34" t="n">
-        <v>2074.755185735276</v>
+        <v>1780.842257244274</v>
       </c>
       <c r="V34" t="n">
-        <v>1793.043718343304</v>
+        <v>1499.130789852303</v>
       </c>
       <c r="W34" t="n">
-        <v>1518.191314515817</v>
+        <v>1224.278386024816</v>
       </c>
       <c r="X34" t="n">
-        <v>1275.627417961623</v>
+        <v>981.7144894706206</v>
       </c>
       <c r="Y34" t="n">
-        <v>1049.284649651365</v>
+        <v>755.3717211603627</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1574.270296048584</v>
+        <v>975.802161696738</v>
       </c>
       <c r="C35" t="n">
-        <v>1574.270296048584</v>
+        <v>975.802161696738</v>
       </c>
       <c r="D35" t="n">
-        <v>1150.977675233584</v>
+        <v>552.5095408817383</v>
       </c>
       <c r="E35" t="n">
-        <v>1150.977675233584</v>
+        <v>552.5095408817383</v>
       </c>
       <c r="F35" t="n">
-        <v>725.853493422984</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="G35" t="n">
         <v>323.7742270637712</v>
       </c>
       <c r="H35" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I35" t="n">
-        <v>100.2336449326262</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J35" t="n">
         <v>259.0884825884577</v>
       </c>
       <c r="K35" t="n">
-        <v>505.415714580943</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L35" t="n">
-        <v>817.002963913363</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M35" t="n">
         <v>1168.850098815877</v>
@@ -6955,34 +6955,34 @@
         <v>1863.296465032332</v>
       </c>
       <c r="P35" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q35" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R35" t="n">
         <v>2452.449242428857</v>
       </c>
       <c r="S35" t="n">
-        <v>2400.967150382447</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T35" t="n">
-        <v>2189.933836641815</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U35" t="n">
-        <v>1931.759710922334</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="V35" t="n">
-        <v>1574.270296048584</v>
+        <v>1783.913510228644</v>
       </c>
       <c r="W35" t="n">
-        <v>1574.270296048584</v>
+        <v>1387.522160528991</v>
       </c>
       <c r="X35" t="n">
-        <v>1574.270296048584</v>
+        <v>975.802161696738</v>
       </c>
       <c r="Y35" t="n">
-        <v>1574.270296048584</v>
+        <v>975.802161696738</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H36" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I36" t="n">
-        <v>97.29622459830432</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J36" t="n">
-        <v>206.132477377904</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K36" t="n">
-        <v>375.3146335818846</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L36" t="n">
-        <v>610.3283339106952</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M36" t="n">
-        <v>887.7237283922918</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N36" t="n">
-        <v>1174.802358348868</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O36" t="n">
-        <v>1433.812502676558</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P36" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q36" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R36" t="n">
         <v>1817.4386691009</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.6835800447689</v>
+        <v>563.7452805845314</v>
       </c>
       <c r="C37" t="n">
-        <v>784.7110169236848</v>
+        <v>391.7727174634474</v>
       </c>
       <c r="D37" t="n">
-        <v>621.3942440504555</v>
+        <v>284.5420363688129</v>
       </c>
       <c r="E37" t="n">
-        <v>455.1860382033091</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="F37" t="n">
-        <v>283.3242639778695</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="G37" t="n">
-        <v>253.1176804253233</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H37" t="n">
         <v>118.3338305216665</v>
       </c>
       <c r="I37" t="n">
-        <v>49.04898484857715</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J37" t="n">
-        <v>176.7803915298658</v>
+        <v>98.85867488164493</v>
       </c>
       <c r="K37" t="n">
-        <v>518.7340185402716</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L37" t="n">
-        <v>723.3312822832314</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M37" t="n">
-        <v>1270.251894385577</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N37" t="n">
-        <v>1799.775196526739</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O37" t="n">
-        <v>2295.62929149832</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P37" t="n">
-        <v>2393.630972344877</v>
+        <v>2366.224277374151</v>
       </c>
       <c r="Q37" t="n">
         <v>2452.449242428857</v>
       </c>
       <c r="R37" t="n">
-        <v>2452.449242428857</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S37" t="n">
-        <v>2452.449242428857</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T37" t="n">
-        <v>2452.449242428857</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.320084840745</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.608617448774</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W37" t="n">
-        <v>1615.756213621287</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.192317067093</v>
+        <v>980.254017606855</v>
       </c>
       <c r="Y37" t="n">
-        <v>1146.849548756835</v>
+        <v>753.911249296597</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2000.247235900726</v>
+        <v>1601.776078713213</v>
       </c>
       <c r="C38" t="n">
-        <v>2000.247235900726</v>
+        <v>1174.875348726513</v>
       </c>
       <c r="D38" t="n">
-        <v>1576.954615085726</v>
+        <v>1174.875348726513</v>
       </c>
       <c r="E38" t="n">
-        <v>1150.977675233584</v>
+        <v>748.8984088743709</v>
       </c>
       <c r="F38" t="n">
-        <v>725.853493422984</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="G38" t="n">
         <v>323.7742270637712</v>
       </c>
       <c r="H38" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I38" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J38" t="n">
-        <v>259.0884825884578</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K38" t="n">
-        <v>505.4157145809433</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L38" t="n">
-        <v>817.0029639133634</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O38" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P38" t="n">
-        <v>2144.591619978896</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q38" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R38" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S38" t="n">
-        <v>2399.577050821876</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T38" t="n">
-        <v>2188.543737081244</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U38" t="n">
-        <v>2000.247235900726</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V38" t="n">
-        <v>2000.247235900726</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="W38" t="n">
-        <v>2000.247235900726</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="X38" t="n">
-        <v>2000.247235900726</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="Y38" t="n">
-        <v>2000.247235900726</v>
+        <v>1930.369611361762</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>90.74774188220553</v>
       </c>
       <c r="H39" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I39" t="n">
-        <v>97.29622459830433</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J39" t="n">
-        <v>206.132477377904</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K39" t="n">
-        <v>375.3146335818846</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L39" t="n">
-        <v>610.3283339106952</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M39" t="n">
-        <v>887.7237283922918</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N39" t="n">
         <v>1174.802358348868</v>
       </c>
       <c r="O39" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P39" t="n">
         <v>1638.549354972683</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.205752448298</v>
+        <v>1022.435453812528</v>
       </c>
       <c r="C40" t="n">
-        <v>393.2331893272139</v>
+        <v>850.4628906914442</v>
       </c>
       <c r="D40" t="n">
-        <v>386.1540620674116</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="E40" t="n">
-        <v>386.1540620674116</v>
+        <v>520.9379119710684</v>
       </c>
       <c r="F40" t="n">
-        <v>214.292287841972</v>
+        <v>349.0761377456288</v>
       </c>
       <c r="G40" t="n">
-        <v>49.04898484857716</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H40" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I40" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J40" t="n">
-        <v>98.85867488164497</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K40" t="n">
-        <v>193.5296927780286</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L40" t="n">
-        <v>695.9245873125053</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M40" t="n">
-        <v>1242.845199414851</v>
+        <v>1183.824516737574</v>
       </c>
       <c r="N40" t="n">
-        <v>1772.368501556013</v>
+        <v>1713.347818878735</v>
       </c>
       <c r="O40" t="n">
-        <v>2268.222596527594</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P40" t="n">
-        <v>2366.224277374151</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q40" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R40" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S40" t="n">
-        <v>2299.979641199075</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T40" t="n">
         <v>2060.971414832386</v>
       </c>
       <c r="U40" t="n">
-        <v>1780.842257244275</v>
+        <v>1956.360491216534</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.130789852303</v>
+        <v>1956.360491216534</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.278386024816</v>
+        <v>1681.508087389047</v>
       </c>
       <c r="X40" t="n">
-        <v>981.7144894706215</v>
+        <v>1438.944190834852</v>
       </c>
       <c r="Y40" t="n">
-        <v>755.3717211603636</v>
+        <v>1212.601422524594</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.977675233584</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.977675233584</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D41" t="n">
-        <v>1150.977675233584</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E41" t="n">
-        <v>1150.977675233584</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F41" t="n">
-        <v>725.853493422984</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7742270637712</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H41" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I41" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J41" t="n">
-        <v>259.0884825884579</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K41" t="n">
-        <v>505.4157145809427</v>
+        <v>505.4157145809426</v>
       </c>
       <c r="L41" t="n">
-        <v>817.0029639133629</v>
+        <v>817.0029639133624</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N41" t="n">
-        <v>1527.140232067529</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O41" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P41" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q41" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R41" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S41" t="n">
-        <v>2452.449242428858</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T41" t="n">
-        <v>2452.449242428858</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U41" t="n">
-        <v>2378.93738805702</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="V41" t="n">
-        <v>2378.93738805702</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="W41" t="n">
-        <v>1982.546038357367</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="X41" t="n">
-        <v>1570.826039525114</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y41" t="n">
-        <v>1570.826039525114</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1238.296615522309</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C42" t="n">
-        <v>1120.790712039814</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D42" t="n">
-        <v>1016.950753555099</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E42" t="n">
-        <v>912.2488198280361</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F42" t="n">
-        <v>818.6029895109402</v>
+        <v>183.592416182982</v>
       </c>
       <c r="G42" t="n">
-        <v>725.7583152101638</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H42" t="n">
-        <v>684.0595581765355</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I42" t="n">
-        <v>708.8494920818508</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J42" t="n">
-        <v>800.4044449945681</v>
+        <v>206.1324773779053</v>
       </c>
       <c r="K42" t="n">
-        <v>1010.325206909842</v>
+        <v>375.3146335818857</v>
       </c>
       <c r="L42" t="n">
-        <v>1245.338907238653</v>
+        <v>610.3283339106961</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.73430172025</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.812931676826</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O42" t="n">
-        <v>2068.823076004516</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P42" t="n">
-        <v>2273.559928300641</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q42" t="n">
-        <v>2402.309222676409</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R42" t="n">
-        <v>2452.449242428858</v>
+        <v>1817.4386691009</v>
       </c>
       <c r="S42" t="n">
-        <v>2393.583450405282</v>
+        <v>1758.572877077324</v>
       </c>
       <c r="T42" t="n">
-        <v>2256.577026043347</v>
+        <v>1621.566452715389</v>
       </c>
       <c r="U42" t="n">
-        <v>2071.888375849933</v>
+        <v>1436.877802521975</v>
       </c>
       <c r="V42" t="n">
-        <v>1866.915236989199</v>
+        <v>1231.904663661241</v>
       </c>
       <c r="W42" t="n">
-        <v>1670.393859822416</v>
+        <v>1035.383286494458</v>
       </c>
       <c r="X42" t="n">
-        <v>1506.916513589079</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y42" t="n">
-        <v>1367.223624942372</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.6753536780816</v>
+        <v>928.4035266123883</v>
       </c>
       <c r="C43" t="n">
-        <v>545.7027905569976</v>
+        <v>756.4309634913043</v>
       </c>
       <c r="D43" t="n">
-        <v>545.7027905569976</v>
+        <v>756.4309634913043</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9379119710684</v>
+        <v>590.2227576441578</v>
       </c>
       <c r="F43" t="n">
-        <v>349.0761377456288</v>
+        <v>418.3609834187182</v>
       </c>
       <c r="G43" t="n">
-        <v>183.8328347522339</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H43" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I43" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J43" t="n">
-        <v>98.85867488164499</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K43" t="n">
-        <v>193.5296927780287</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L43" t="n">
-        <v>695.9245873125054</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M43" t="n">
-        <v>1242.845199414851</v>
+        <v>1154.514044714272</v>
       </c>
       <c r="N43" t="n">
-        <v>1772.368501556013</v>
+        <v>1335.645494575532</v>
       </c>
       <c r="O43" t="n">
-        <v>2268.222596527594</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P43" t="n">
-        <v>2366.224277374151</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q43" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R43" t="n">
-        <v>2452.449242428858</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S43" t="n">
-        <v>2452.449242428858</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T43" t="n">
-        <v>2213.44101606217</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="U43" t="n">
-        <v>1933.311858474058</v>
+        <v>2018.390011747196</v>
       </c>
       <c r="V43" t="n">
-        <v>1651.600391082087</v>
+        <v>1862.328564016394</v>
       </c>
       <c r="W43" t="n">
-        <v>1376.7479872546</v>
+        <v>1587.476160188907</v>
       </c>
       <c r="X43" t="n">
-        <v>1134.184090700405</v>
+        <v>1344.912263634712</v>
       </c>
       <c r="Y43" t="n">
-        <v>907.8413223901473</v>
+        <v>1118.569495324454</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1173.967577865471</v>
+        <v>1152.754223409684</v>
       </c>
       <c r="C44" t="n">
-        <v>747.0668478787709</v>
+        <v>725.853493422984</v>
       </c>
       <c r="D44" t="n">
-        <v>323.7742270637712</v>
+        <v>725.853493422984</v>
       </c>
       <c r="E44" t="n">
-        <v>323.7742270637712</v>
+        <v>725.853493422984</v>
       </c>
       <c r="F44" t="n">
-        <v>323.7742270637712</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7742270637712</v>
+        <v>323.7742270637713</v>
       </c>
       <c r="H44" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I44" t="n">
-        <v>100.2336449326257</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J44" t="n">
-        <v>259.0884825884576</v>
+        <v>259.0884825884581</v>
       </c>
       <c r="K44" t="n">
-        <v>505.4157145809428</v>
+        <v>505.4157145809431</v>
       </c>
       <c r="L44" t="n">
         <v>817.0029639133629</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N44" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O44" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P44" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q44" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R44" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S44" t="n">
-        <v>2452.449242428858</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T44" t="n">
-        <v>2241.415928688226</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U44" t="n">
-        <v>1983.241802968745</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.752388094995</v>
+        <v>1572.880196488012</v>
       </c>
       <c r="W44" t="n">
-        <v>1229.361038395342</v>
+        <v>1176.488846788359</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.967577865471</v>
+        <v>1176.488846788359</v>
       </c>
       <c r="Y44" t="n">
-        <v>1173.967577865471</v>
+        <v>1176.488846788359</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>183.592416182982</v>
       </c>
       <c r="G45" t="n">
-        <v>90.74774188220555</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H45" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I45" t="n">
-        <v>97.29622459830435</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J45" t="n">
-        <v>188.8511775110216</v>
+        <v>206.1324773779053</v>
       </c>
       <c r="K45" t="n">
-        <v>358.0333337150022</v>
+        <v>375.3146335818857</v>
       </c>
       <c r="L45" t="n">
-        <v>593.0470340438128</v>
+        <v>610.3283339106961</v>
       </c>
       <c r="M45" t="n">
-        <v>870.4424285254096</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N45" t="n">
         <v>1174.802358348868</v>
       </c>
       <c r="O45" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P45" t="n">
         <v>1638.549354972683</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.6753536780816</v>
+        <v>563.7452805845314</v>
       </c>
       <c r="C46" t="n">
-        <v>545.7027905569976</v>
+        <v>391.7727174634474</v>
       </c>
       <c r="D46" t="n">
-        <v>382.3860176837683</v>
+        <v>290.1956047471061</v>
       </c>
       <c r="E46" t="n">
-        <v>216.1778118366218</v>
+        <v>290.1956047471061</v>
       </c>
       <c r="F46" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="G46" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H46" t="n">
-        <v>49.04898484857716</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I46" t="n">
-        <v>49.04898484857716</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J46" t="n">
-        <v>176.7803915298659</v>
+        <v>126.265369852371</v>
       </c>
       <c r="K46" t="n">
-        <v>271.4514094262496</v>
+        <v>220.9363877487546</v>
       </c>
       <c r="L46" t="n">
-        <v>397.4574103695613</v>
+        <v>723.3312822832312</v>
       </c>
       <c r="M46" t="n">
-        <v>944.3780224719072</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N46" t="n">
-        <v>1473.901324613068</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O46" t="n">
-        <v>1969.755419584649</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P46" t="n">
-        <v>2242.257474966979</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q46" t="n">
-        <v>2452.449242428858</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R46" t="n">
-        <v>2452.449242428858</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S46" t="n">
-        <v>2452.449242428858</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T46" t="n">
-        <v>2213.44101606217</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U46" t="n">
-        <v>1933.311858474058</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V46" t="n">
-        <v>1651.600391082087</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W46" t="n">
-        <v>1376.7479872546</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X46" t="n">
-        <v>1134.184090700405</v>
+        <v>980.254017606855</v>
       </c>
       <c r="Y46" t="n">
-        <v>907.8413223901473</v>
+        <v>753.911249296597</v>
       </c>
     </row>
   </sheetData>
@@ -8461,7 +8461,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M8" t="n">
-        <v>10.50014909015127</v>
+        <v>10.50014909015128</v>
       </c>
       <c r="N8" t="n">
         <v>9.912735448118685</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.34699725816536</v>
+        <v>13.34699725816537</v>
       </c>
       <c r="J9" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K9" t="n">
-        <v>9.147977155514765</v>
+        <v>9.147977155514766</v>
       </c>
       <c r="L9" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M9" t="n">
-        <v>2.304073385794617</v>
+        <v>2.30407338579462</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P9" t="n">
-        <v>6.10054723088008</v>
+        <v>6.100547230880082</v>
       </c>
       <c r="Q9" t="n">
         <v>12.27186175772305</v>
@@ -8771,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>70.37539003541858</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.8960973939095</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>126.5047566361197</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>124.0536869222923</v>
       </c>
       <c r="N13" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>70.37539003541769</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>94.06963836310678</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362447</v>
+        <v>49.89324888542859</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779358</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>120.89109554784</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>220.6143740853714</v>
+        <v>7.360890261673674</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>275.0289943327834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>50.95854331539968</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479649</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.5866010684577674</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9482,25 +9482,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>70.37539003541778</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>7.546799766981138</v>
+        <v>81.74051767574691</v>
       </c>
       <c r="L22" t="n">
         <v>360.0219516362448</v>
@@ -9579,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>17.45585845139742</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>17.45585845139621</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>13.94738828521136</v>
       </c>
       <c r="P25" t="n">
-        <v>176.2630045815875</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.15010677908506</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.68353027346114</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>79.38511393903792</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>17.4558584513974</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>17.45585845139641</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.68353027346114</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>27.68353027346011</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>17.4558584513974</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>17.4558584513961</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>329.1655271855259</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.68353027345978</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>17.45585845139644</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>79.38511393903849</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>27.68353027345978</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>17.45585845139644</v>
+        <v>41.15010677908616</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>29.60653739727391</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.68353027346068</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.15010677908651</v>
       </c>
       <c r="K42" t="n">
-        <v>41.15010677908467</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>50.14249551714983</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.68353027346112</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>17.4558584513978</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>17.45585845139601</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>27.68353027346065</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>176.2630045815879</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>230.1827776817424</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>219.4601265246047</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.98975053166833</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.172185796918</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.0907413514867</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>383.590338067838</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100.6637612846485</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
@@ -23712,13 +23712,13 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>200.6247861615</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>310.6707506805358</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.1590449523947</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>128.9073711041199</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>78.47497276548316</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>360.1709960561499</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>133.8393816160985</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>73.95746943255007</v>
       </c>
       <c r="F22" t="n">
-        <v>35.42134803337783</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>113.594172860698</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9779897930421</v>
+        <v>8.843175631855217</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>121.5310008203781</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>176.7754054834863</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>63.54781080061036</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.94822664494831</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>92.97663033723035</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>122.166828861347</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.9779897930421</v>
+        <v>124.9411091567733</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.3529555550371</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.04911598807439</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4360114046202</v>
+        <v>119.3043102171686</v>
       </c>
       <c r="I31" t="n">
         <v>68.59199721635846</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24925,13 +24925,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>4.033674411736456</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>190.327301348164</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>31.4288026703143</v>
       </c>
       <c r="I34" t="n">
-        <v>68.59199721635846</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S34" t="n">
-        <v>54.35565510306978</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>194.4249793127063</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.37619856496579</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.52523086080889</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>133.6863522464402</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.445867145127828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.6181441030213</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>90.3422833265513</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>69.17884829357334</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.6752691572927</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>68.59199721635846</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.445867145127828</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>173.7630516325372</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.34346969091202</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>182.8156486341656</v>
+        <v>237.4239881403587</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,7 +25794,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>140.0288939886051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.445867145127821</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.393519464557</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>392.1526035037267</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.34346969091202</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>352.763272919358</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>61.12226355531914</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>4.685617765020964</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.5908699634609</v>
@@ -26043,7 +26043,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I46" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.445867145127821</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54192.29530348178</v>
+        <v>54192.29530348179</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385257.100660841</v>
+        <v>385257.1006608409</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>461759.9946425788</v>
+        <v>461759.9946425785</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>461759.9946425788</v>
+        <v>461759.9946425786</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461759.9946425788</v>
+        <v>461759.9946425787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>461759.9946425787</v>
+        <v>461759.9946425786</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461759.9946425788</v>
+        <v>461759.9946425787</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461759.9946425788</v>
+        <v>461759.9946425787</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>169146.2109196022</v>
       </c>
       <c r="F2" t="n">
-        <v>169146.2109196021</v>
+        <v>169146.210919602</v>
       </c>
       <c r="G2" t="n">
         <v>169146.2109196021</v>
@@ -26334,7 +26334,7 @@
         <v>169146.2109196021</v>
       </c>
       <c r="I2" t="n">
-        <v>205627.360853392</v>
+        <v>205627.3608533919</v>
       </c>
       <c r="J2" t="n">
         <v>205627.360853392</v>
@@ -26343,19 +26343,19 @@
         <v>205627.360853392</v>
       </c>
       <c r="L2" t="n">
-        <v>205627.360853392</v>
+        <v>205627.3608533919</v>
       </c>
       <c r="M2" t="n">
         <v>205627.3608533919</v>
       </c>
       <c r="N2" t="n">
+        <v>205627.3608533919</v>
+      </c>
+      <c r="O2" t="n">
         <v>205627.360853392</v>
       </c>
-      <c r="O2" t="n">
-        <v>205627.3608533919</v>
-      </c>
       <c r="P2" t="n">
-        <v>205627.3608533919</v>
+        <v>205627.360853392</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>450402.4144597792</v>
+        <v>450402.4144597793</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137495.0702174703</v>
+        <v>137495.07021747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>13609.34670381058</v>
       </c>
       <c r="J4" t="n">
-        <v>13609.34670381058</v>
+        <v>13609.34670381059</v>
       </c>
       <c r="K4" t="n">
         <v>13609.34670381058</v>
@@ -26453,13 +26453,13 @@
         <v>13609.34670381058</v>
       </c>
       <c r="N4" t="n">
-        <v>13609.34670381058</v>
+        <v>13609.34670381059</v>
       </c>
       <c r="O4" t="n">
-        <v>13609.34670381057</v>
+        <v>13609.34670381059</v>
       </c>
       <c r="P4" t="n">
-        <v>13609.34670381058</v>
+        <v>13609.3467038106</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="J5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="K5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="L5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="M5" t="n">
-        <v>49408.99443194091</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="N5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="O5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="P5" t="n">
-        <v>49408.99443194093</v>
+        <v>49408.9944319409</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645024</v>
       </c>
       <c r="C6" t="n">
-        <v>-24791.61840964846</v>
+        <v>-26149.54750645024</v>
       </c>
       <c r="D6" t="n">
-        <v>-50443.86826798209</v>
+        <v>-51798.71574736577</v>
       </c>
       <c r="E6" t="n">
-        <v>-334809.5382987531</v>
+        <v>-335496.7985555102</v>
       </c>
       <c r="F6" t="n">
-        <v>115592.876161026</v>
+        <v>114905.615904269</v>
       </c>
       <c r="G6" t="n">
-        <v>115592.876161026</v>
+        <v>114905.6159042691</v>
       </c>
       <c r="H6" t="n">
-        <v>115592.876161026</v>
+        <v>114905.615904269</v>
       </c>
       <c r="I6" t="n">
-        <v>5113.949500170173</v>
+        <v>4592.512652203326</v>
       </c>
       <c r="J6" t="n">
-        <v>142609.0197176404</v>
+        <v>142087.5828696734</v>
       </c>
       <c r="K6" t="n">
-        <v>142609.0197176405</v>
+        <v>142087.5828696734</v>
       </c>
       <c r="L6" t="n">
-        <v>142609.0197176405</v>
+        <v>142087.5828696734</v>
       </c>
       <c r="M6" t="n">
-        <v>29606.94857514458</v>
+        <v>29085.51172717753</v>
       </c>
       <c r="N6" t="n">
-        <v>142609.0197176405</v>
+        <v>142087.5828696734</v>
       </c>
       <c r="O6" t="n">
-        <v>142609.0197176404</v>
+        <v>142087.5828696735</v>
       </c>
       <c r="P6" t="n">
-        <v>142609.0197176404</v>
+        <v>142087.5828696735</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469462</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="J3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="K3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="L3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="M3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="N3" t="n">
-        <v>556.5030250927653</v>
+        <v>556.503025092765</v>
       </c>
       <c r="O3" t="n">
-        <v>556.5030250927654</v>
+        <v>556.5030250927649</v>
       </c>
       <c r="P3" t="n">
-        <v>556.5030250927654</v>
+        <v>556.5030250927649</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
+        <v>453.4520759799035</v>
+      </c>
+      <c r="G4" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="G4" t="n">
-        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1123106072145</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="J4" t="n">
-        <v>613.1123106072145</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="K4" t="n">
-        <v>613.1123106072145</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="L4" t="n">
-        <v>613.1123106072145</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="M4" t="n">
-        <v>613.1123106072143</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="N4" t="n">
-        <v>613.1123106072145</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="O4" t="n">
-        <v>613.1123106072146</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="P4" t="n">
-        <v>613.1123106072146</v>
+        <v>613.1123106072142</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>392.096619651472</v>
+        <v>392.0966196514722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.2546492458192</v>
+        <v>126.2546492458189</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>159.660234627311</v>
+        <v>159.6602346273106</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31521,16 +31521,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I8" t="n">
-        <v>5.912947058195032</v>
+        <v>5.912947058195031</v>
       </c>
       <c r="J8" t="n">
-        <v>13.01741755736932</v>
+        <v>13.01741755736931</v>
       </c>
       <c r="K8" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L8" t="n">
-        <v>24.20355081735588</v>
+        <v>24.20355081735587</v>
       </c>
       <c r="M8" t="n">
         <v>26.93111380928054</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08206226804309516</v>
+        <v>0.08206226804309515</v>
       </c>
       <c r="H9" t="n">
         <v>0.7925487466267348</v>
@@ -31603,7 +31603,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J9" t="n">
-        <v>7.753084718931198</v>
+        <v>7.753084718931197</v>
       </c>
       <c r="K9" t="n">
         <v>13.25125667781857</v>
@@ -31630,13 +31630,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S9" t="n">
-        <v>1.524270636677666</v>
+        <v>1.524270636677665</v>
       </c>
       <c r="T9" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005398833423887841</v>
+        <v>0.00539883342388784</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.611678976379896</v>
+        <v>0.6116789763798959</v>
       </c>
       <c r="I10" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J10" t="n">
-        <v>4.864036195609865</v>
+        <v>4.864036195609864</v>
       </c>
       <c r="K10" t="n">
-        <v>7.993105642264891</v>
+        <v>7.99310564226489</v>
       </c>
       <c r="L10" t="n">
         <v>10.22842329214398</v>
@@ -31697,22 +31697,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O10" t="n">
-        <v>9.724319759462801</v>
+        <v>9.7243197594628</v>
       </c>
       <c r="P10" t="n">
-        <v>8.320835482370274</v>
+        <v>8.320835482370272</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.760915185516583</v>
+        <v>5.760915185516582</v>
       </c>
       <c r="R10" t="n">
-        <v>3.093419444964175</v>
+        <v>3.093419444964174</v>
       </c>
       <c r="S10" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2939561542929968</v>
+        <v>0.2939561542929967</v>
       </c>
       <c r="U10" t="n">
         <v>0.003752631756931878</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J11" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L11" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M11" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100418</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050278</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651296</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.433776076595</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L12" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S12" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.775857726937116</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677273</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596673</v>
       </c>
       <c r="L13" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M13" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N13" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O13" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701261</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S13" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I23" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J23" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K23" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L23" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M23" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N23" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O23" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R23" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S23" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T23" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H24" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I24" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J24" t="n">
         <v>113.0908647502194</v>
@@ -32794,34 +32794,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L24" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M24" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N24" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O24" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P24" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q24" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R24" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S24" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T24" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H25" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I25" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J25" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K25" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L25" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M25" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N25" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O25" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P25" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R25" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S25" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T25" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H26" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I26" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J26" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K26" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M26" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N26" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O26" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S26" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T26" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H27" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I27" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J27" t="n">
         <v>113.0908647502194</v>
@@ -33031,34 +33031,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L27" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M27" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N27" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O27" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P27" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q27" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R27" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S27" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T27" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H28" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I28" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J28" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K28" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L28" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M28" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N28" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O28" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P28" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R28" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S28" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T28" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H29" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J29" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K29" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L29" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M29" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N29" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O29" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S29" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T29" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H30" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I30" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J30" t="n">
         <v>113.0908647502194</v>
@@ -33268,34 +33268,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L30" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M30" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N30" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O30" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P30" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q30" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R30" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S30" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T30" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H31" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I31" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J31" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K31" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L31" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M31" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N31" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O31" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P31" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R31" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S31" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T31" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H32" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I32" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J32" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K32" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L32" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M32" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N32" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O32" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R32" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S32" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T32" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H33" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I33" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J33" t="n">
         <v>113.0908647502194</v>
@@ -33505,34 +33505,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L33" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M33" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N33" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O33" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P33" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q33" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R33" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S33" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T33" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H34" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I34" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J34" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K34" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L34" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M34" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N34" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O34" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P34" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R34" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S34" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T34" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H35" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I35" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J35" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K35" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M35" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N35" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O35" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R35" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S35" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T35" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H36" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I36" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J36" t="n">
         <v>113.0908647502194</v>
@@ -33742,34 +33742,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L36" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M36" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N36" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O36" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P36" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q36" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R36" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S36" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T36" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H37" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I37" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J37" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K37" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L37" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M37" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N37" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O37" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P37" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R37" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S37" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T37" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>2.237198090825185</v>
       </c>
       <c r="H38" t="n">
-        <v>22.91170494766343</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I38" t="n">
-        <v>86.24957939653804</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J38" t="n">
         <v>189.8793914611742</v>
       </c>
       <c r="K38" t="n">
-        <v>284.5799866458044</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L38" t="n">
-        <v>353.0466377178957</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M38" t="n">
-        <v>392.8324092656081</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N38" t="n">
-        <v>399.1888483411652</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O38" t="n">
-        <v>376.9427098255222</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7118819582754</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R38" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S38" t="n">
-        <v>50.98015149467896</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T38" t="n">
-        <v>9.793334642587254</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.197006506803306</v>
       </c>
       <c r="H39" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I39" t="n">
-        <v>41.2127240280963</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J39" t="n">
         <v>113.0908647502194</v>
@@ -33979,34 +33979,34 @@
         <v>193.2903007060409</v>
       </c>
       <c r="L39" t="n">
-        <v>259.9026628039372</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M39" t="n">
-        <v>303.294148675557</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N39" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O39" t="n">
-        <v>284.7982981340305</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P39" t="n">
-        <v>228.5757425140454</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q39" t="n">
         <v>152.7968305877343</v>
       </c>
       <c r="R39" t="n">
-        <v>74.31940399257725</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S39" t="n">
-        <v>22.23387086101754</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T39" t="n">
-        <v>4.824776226983501</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07875042807916492</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H40" t="n">
-        <v>8.922294402306964</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I40" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J40" t="n">
-        <v>70.94957419912188</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K40" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L40" t="n">
         <v>149.1975487273292</v>
       </c>
       <c r="M40" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N40" t="n">
         <v>153.5674659243692</v>
       </c>
       <c r="O40" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P40" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.03195678900755</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R40" t="n">
-        <v>45.12236003457075</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S40" t="n">
         <v>17.48879178857099</v>
       </c>
       <c r="T40" t="n">
-        <v>4.287810193337698</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0547380024681409</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825184</v>
       </c>
       <c r="H41" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I41" t="n">
-        <v>86.24957939653805</v>
+        <v>86.24957939653798</v>
       </c>
       <c r="J41" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611741</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458042</v>
       </c>
       <c r="L41" t="n">
-        <v>353.0466377178958</v>
+        <v>353.0466377178955</v>
       </c>
       <c r="M41" t="n">
-        <v>392.8324092656082</v>
+        <v>392.8324092656079</v>
       </c>
       <c r="N41" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411649</v>
       </c>
       <c r="O41" t="n">
-        <v>376.9427098255223</v>
+        <v>376.942709825522</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7118819582755</v>
+        <v>321.7118819582752</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305982</v>
       </c>
       <c r="R41" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S41" t="n">
-        <v>50.98015149467897</v>
+        <v>50.98015149467893</v>
       </c>
       <c r="T41" t="n">
-        <v>9.793334642587256</v>
+        <v>9.793334642587247</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H42" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I42" t="n">
-        <v>41.21272402809631</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J42" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K42" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060408</v>
       </c>
       <c r="L42" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M42" t="n">
-        <v>303.2941486755571</v>
+        <v>303.2941486755568</v>
       </c>
       <c r="N42" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110931</v>
       </c>
       <c r="O42" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340303</v>
       </c>
       <c r="P42" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R42" t="n">
-        <v>74.31940399257726</v>
+        <v>74.31940399257721</v>
       </c>
       <c r="S42" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T42" t="n">
-        <v>4.824776226983502</v>
+        <v>4.824776226983498</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07875042807916495</v>
+        <v>0.07875042807916488</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H43" t="n">
-        <v>8.922294402306965</v>
+        <v>8.922294402306958</v>
       </c>
       <c r="I43" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J43" t="n">
-        <v>70.9495741991219</v>
+        <v>70.94957419912184</v>
       </c>
       <c r="K43" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L43" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273291</v>
       </c>
       <c r="M43" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N43" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243691</v>
       </c>
       <c r="O43" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P43" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.03195678900757</v>
+        <v>84.03195678900749</v>
       </c>
       <c r="R43" t="n">
-        <v>45.12236003457076</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S43" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857098</v>
       </c>
       <c r="T43" t="n">
-        <v>4.287810193337699</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814087</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825184</v>
       </c>
       <c r="H44" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I44" t="n">
-        <v>86.24957939653783</v>
+        <v>86.24957939653798</v>
       </c>
       <c r="J44" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611746</v>
       </c>
       <c r="K44" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458042</v>
       </c>
       <c r="L44" t="n">
-        <v>353.0466377178958</v>
+        <v>353.0466377178955</v>
       </c>
       <c r="M44" t="n">
-        <v>392.8324092656082</v>
+        <v>392.8324092656079</v>
       </c>
       <c r="N44" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411649</v>
       </c>
       <c r="O44" t="n">
-        <v>376.9427098255223</v>
+        <v>376.942709825522</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7118819582755</v>
+        <v>321.7118819582752</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.5922253305984</v>
+        <v>241.5922253305982</v>
       </c>
       <c r="R44" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S44" t="n">
-        <v>50.98015149467897</v>
+        <v>50.98015149467893</v>
       </c>
       <c r="T44" t="n">
-        <v>9.793334642587256</v>
+        <v>9.793334642587247</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1789758472660148</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H45" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I45" t="n">
-        <v>41.21272402809631</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J45" t="n">
         <v>113.0908647502194</v>
       </c>
       <c r="K45" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060408</v>
       </c>
       <c r="L45" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M45" t="n">
-        <v>303.2941486755571</v>
+        <v>303.2941486755568</v>
       </c>
       <c r="N45" t="n">
-        <v>311.3214423110933</v>
+        <v>311.3214423110931</v>
       </c>
       <c r="O45" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340303</v>
       </c>
       <c r="P45" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R45" t="n">
-        <v>74.31940399257726</v>
+        <v>74.31940399257721</v>
       </c>
       <c r="S45" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T45" t="n">
-        <v>4.824776226983502</v>
+        <v>4.824776226983498</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07875042807916495</v>
+        <v>0.07875042807916488</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H46" t="n">
-        <v>8.922294402306965</v>
+        <v>8.922294402306958</v>
       </c>
       <c r="I46" t="n">
-        <v>30.17888536076833</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J46" t="n">
-        <v>70.9495741991219</v>
+        <v>70.94957419912184</v>
       </c>
       <c r="K46" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L46" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273291</v>
       </c>
       <c r="M46" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N46" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243691</v>
       </c>
       <c r="O46" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P46" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.03195678900757</v>
+        <v>84.03195678900749</v>
       </c>
       <c r="R46" t="n">
-        <v>45.12236003457076</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S46" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857098</v>
       </c>
       <c r="T46" t="n">
-        <v>4.287810193337699</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814087</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35415,25 +35415,25 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q11" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639439</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.2806509035113</v>
+        <v>95.38455350960191</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L13" t="n">
-        <v>219.9348809797785</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799035</v>
+        <v>223.0974723542309</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>97.97849100196764</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810541</v>
       </c>
       <c r="P13" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
         <v>361.8756844398183</v>
@@ -35731,22 +35731,22 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>248.7984716825379</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
-        <v>313.4181048603958</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960186</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799034</v>
+        <v>143.3233732290873</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193859</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P16" t="n">
-        <v>192.3467603368661</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>287.437035828633</v>
+        <v>74.18355200493532</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>453.4520759799035</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
         <v>211.3885843242576</v>
@@ -35977,16 +35977,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960186</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>144.3886676590584</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196758</v>
+        <v>98.56509207042537</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810536</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
         <v>193.2504645920423</v>
@@ -36202,7 +36202,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>197.4144057639431</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>76.72270668023585</v>
+        <v>150.9164245890016</v>
       </c>
       <c r="L22" t="n">
         <v>453.4520759799035</v>
@@ -36299,7 +36299,7 @@
         <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J23" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K23" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L23" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M23" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N23" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O23" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P23" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R23" t="n">
         <v>105.4997446780012</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.73458560578503</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J24" t="n">
-        <v>92.47975041688609</v>
+        <v>109.9356088682835</v>
       </c>
       <c r="K24" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M24" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N24" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O24" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P24" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.5056507501521</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R24" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K25" t="n">
-        <v>95.62729080442796</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L25" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M25" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N25" t="n">
-        <v>534.8720223648095</v>
+        <v>132.8185649487688</v>
       </c>
       <c r="O25" t="n">
-        <v>500.8627221935161</v>
+        <v>133.2926111825625</v>
       </c>
       <c r="P25" t="n">
-        <v>275.2546013962919</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q25" t="n">
         <v>212.314916628161</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J26" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K26" t="n">
-        <v>248.8153858509951</v>
+        <v>248.8153858509944</v>
       </c>
       <c r="L26" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M26" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N26" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O26" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P26" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R26" t="n">
         <v>105.4997446780012</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.0403372780963</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J27" t="n">
-        <v>92.47975041688609</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K27" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L27" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M27" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N27" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O27" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P27" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q27" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R27" t="n">
-        <v>91.79659137751817</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.99634848868116</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K28" t="n">
-        <v>95.62729080442796</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4695904388653</v>
+        <v>127.278788831628</v>
       </c>
       <c r="M28" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N28" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O28" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P28" t="n">
-        <v>98.99159681470442</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.41239402422261</v>
+        <v>138.7975079632605</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J29" t="n">
-        <v>160.4594319755879</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K29" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L29" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M29" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O29" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P29" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R29" t="n">
         <v>105.4997446780012</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.73458560578503</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J30" t="n">
-        <v>92.47975041688609</v>
+        <v>109.9356088682834</v>
       </c>
       <c r="K30" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L30" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M30" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N30" t="n">
-        <v>307.434272548948</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O30" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P30" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q30" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R30" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.99634848868116</v>
+        <v>50.31281821521999</v>
       </c>
       <c r="K31" t="n">
-        <v>95.62729080442796</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L31" t="n">
         <v>507.4695904388653</v>
@@ -37001,16 +37001,16 @@
         <v>552.4450627296424</v>
       </c>
       <c r="N31" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O31" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P31" t="n">
-        <v>98.99159681470442</v>
+        <v>126.6751270881645</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.41239402422261</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J32" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K32" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L32" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M32" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N32" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O32" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P32" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R32" t="n">
         <v>105.4997446780012</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.73458560578503</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J33" t="n">
-        <v>92.47975041688609</v>
+        <v>109.9356088682834</v>
       </c>
       <c r="K33" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L33" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M33" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N33" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O33" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P33" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q33" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R33" t="n">
-        <v>68.1023430498292</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821521999</v>
       </c>
       <c r="K34" t="n">
-        <v>95.62729080442796</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L34" t="n">
-        <v>456.4443160171539</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M34" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N34" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O34" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P34" t="n">
-        <v>98.99159681470442</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.41239402422261</v>
+        <v>87.09592429768236</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K35" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L35" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M35" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N35" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O35" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P35" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R35" t="n">
         <v>105.4997446780012</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.73458560578503</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J36" t="n">
-        <v>109.9356088682825</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K36" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M36" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N36" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O36" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q36" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R36" t="n">
-        <v>50.6464845984331</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.0216229103926</v>
+        <v>50.31281821521999</v>
       </c>
       <c r="K37" t="n">
-        <v>345.4077040509149</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L37" t="n">
-        <v>206.6639027706665</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M37" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N37" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O37" t="n">
         <v>500.8627221935161</v>
       </c>
       <c r="P37" t="n">
-        <v>98.99159681470442</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.41239402422261</v>
+        <v>87.09592429768236</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>51.70167685257454</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4594319755877</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K38" t="n">
-        <v>248.8153858509951</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L38" t="n">
-        <v>314.7345952852728</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M38" t="n">
-        <v>355.4011463661762</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N38" t="n">
-        <v>361.9092255067192</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O38" t="n">
-        <v>339.5517504694981</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P38" t="n">
-        <v>284.1365201480441</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R38" t="n">
         <v>105.4997446780012</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.73458560578503</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J39" t="n">
-        <v>109.9356088682825</v>
+        <v>133.6298571959722</v>
       </c>
       <c r="K39" t="n">
-        <v>170.8910668727076</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L39" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M39" t="n">
-        <v>280.197368163229</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N39" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O39" t="n">
-        <v>261.6264084118083</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P39" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q39" t="n">
         <v>130.0497922987558</v>
       </c>
       <c r="R39" t="n">
-        <v>50.6464845984331</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.31281821522002</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K40" t="n">
-        <v>95.62729080442796</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L40" t="n">
         <v>507.4695904388653</v>
       </c>
       <c r="M40" t="n">
-        <v>552.4450627296424</v>
+        <v>164.3389935988134</v>
       </c>
       <c r="N40" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O40" t="n">
-        <v>500.8627221935161</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P40" t="n">
-        <v>98.99159681470442</v>
+        <v>414.9069549695606</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.09592429768328</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.70167685257455</v>
+        <v>51.70167685257448</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K41" t="n">
-        <v>248.8153858509951</v>
+        <v>248.8153858509949</v>
       </c>
       <c r="L41" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M41" t="n">
-        <v>355.4011463661764</v>
+        <v>355.401146366176</v>
       </c>
       <c r="N41" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067189</v>
       </c>
       <c r="O41" t="n">
-        <v>339.5517504694982</v>
+        <v>339.5517504694979</v>
       </c>
       <c r="P41" t="n">
-        <v>284.1365201480442</v>
+        <v>284.1365201480439</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R41" t="n">
-        <v>105.4997446780012</v>
+        <v>105.4997446780011</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.04033727809631</v>
+        <v>25.04033727809627</v>
       </c>
       <c r="J42" t="n">
-        <v>92.47975041688611</v>
+        <v>133.6298571959725</v>
       </c>
       <c r="K42" t="n">
-        <v>212.0411736517923</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L42" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897075</v>
       </c>
       <c r="M42" t="n">
-        <v>280.1973681632291</v>
+        <v>280.1973681632288</v>
       </c>
       <c r="N42" t="n">
-        <v>289.9784140975516</v>
+        <v>289.9784140975514</v>
       </c>
       <c r="O42" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118081</v>
       </c>
       <c r="P42" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092166</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R42" t="n">
-        <v>50.64648459843312</v>
+        <v>50.64648459843306</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.31281821522003</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K43" t="n">
-        <v>95.62729080442799</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4695904388654</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M43" t="n">
-        <v>552.4450627296424</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N43" t="n">
-        <v>534.8720223648095</v>
+        <v>182.9610604659186</v>
       </c>
       <c r="O43" t="n">
-        <v>500.8627221935162</v>
+        <v>500.862722193516</v>
       </c>
       <c r="P43" t="n">
-        <v>98.99159681470445</v>
+        <v>414.9069549695605</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.09592429768374</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.70167685257432</v>
+        <v>51.70167685257448</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755881</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8153858509951</v>
+        <v>248.8153858509949</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M44" t="n">
-        <v>355.4011463661764</v>
+        <v>355.401146366176</v>
       </c>
       <c r="N44" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067189</v>
       </c>
       <c r="O44" t="n">
-        <v>339.5517504694982</v>
+        <v>339.5517504694979</v>
       </c>
       <c r="P44" t="n">
-        <v>284.1365201480442</v>
+        <v>284.1365201480439</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.4675507260004</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R44" t="n">
-        <v>105.4997446780012</v>
+        <v>105.4997446780011</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.73458560578504</v>
+        <v>48.734585605785</v>
       </c>
       <c r="J45" t="n">
-        <v>92.47975041688611</v>
+        <v>109.9356088682838</v>
       </c>
       <c r="K45" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L45" t="n">
-        <v>237.3875760897077</v>
+        <v>237.3875760897075</v>
       </c>
       <c r="M45" t="n">
-        <v>280.1973681632291</v>
+        <v>280.1973681632288</v>
       </c>
       <c r="N45" t="n">
-        <v>307.4342725489477</v>
+        <v>289.9784140975514</v>
       </c>
       <c r="O45" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118081</v>
       </c>
       <c r="P45" t="n">
-        <v>206.8049013092168</v>
+        <v>206.8049013092166</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R45" t="n">
-        <v>50.64648459843312</v>
+        <v>50.64648459843306</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.0216229103926</v>
+        <v>77.99634848868062</v>
       </c>
       <c r="K46" t="n">
-        <v>95.62729080442799</v>
+        <v>95.62729080442789</v>
       </c>
       <c r="L46" t="n">
-        <v>127.278788831628</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M46" t="n">
         <v>552.4450627296424</v>
       </c>
       <c r="N46" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O46" t="n">
-        <v>500.8627221935162</v>
+        <v>500.862722193516</v>
       </c>
       <c r="P46" t="n">
-        <v>275.2546013962923</v>
+        <v>98.99159681470435</v>
       </c>
       <c r="Q46" t="n">
-        <v>212.314916628161</v>
+        <v>59.41239402422255</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
